--- a/routine.xlsx
+++ b/routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Code</t>
   </si>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">EEE 2113</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrical Circuits</t>
+    <t xml:space="preserve">Electrical Circuits AA</t>
   </si>
   <si>
     <t>A</t>
@@ -84,7 +84,7 @@
     <t>Wed</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30:AM - 09:50:AM</t>
+    <t xml:space="preserve">06:00:PM - 06:50:PM</t>
   </si>
   <si>
     <t xml:space="preserve">EEE 2123</t>
@@ -99,10 +99,27 @@
     <t xml:space="preserve">12:31:PM - 01:50:PM</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Electronics </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>BB</t>
+    </r>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t xml:space="preserve">03:11:PM - 04:30:PM</t>
+    <t xml:space="preserve">06:51:PM - 09:50:PM</t>
   </si>
   <si>
     <t xml:space="preserve">EEE 2124</t>
@@ -833,10 +850,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>423</v>
@@ -851,10 +868,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>16</v>
@@ -862,16 +879,16 @@
     </row>
     <row r="6" ht="60">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
@@ -879,7 +896,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
